--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUA\Database Systems\DB_InstanceOfShapes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355FBE2F-EC06-4B8C-83DD-B788891A9832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C567E33-4E7B-4322-A1C1-BAC96D118245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,35 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>unit_width</t>
-  </si>
-  <si>
-    <t>unit_height</t>
-  </si>
-  <si>
-    <t>Rectangle</t>
-  </si>
-  <si>
-    <t>Pentagon</t>
-  </si>
-  <si>
-    <t>Hexagon</t>
-  </si>
-  <si>
-    <t>Triangle</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -66,9 +42,6 @@
     <t>target_type</t>
   </si>
   <si>
-    <t>target_axis_id</t>
-  </si>
-  <si>
     <t>target_object_id</t>
   </si>
   <si>
@@ -99,9 +72,6 @@
     <t>object</t>
   </si>
   <si>
-    <t>orange</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -114,16 +84,19 @@
     <t>ellipse</t>
   </si>
   <si>
-    <t>Ellipse</t>
-  </si>
-  <si>
     <t>blue</t>
   </si>
   <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>grey</t>
+    <t>target_axis</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>lightblue</t>
+  </si>
+  <si>
+    <t>violet</t>
   </si>
 </sst>
 </file>
@@ -155,7 +128,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,15 +151,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,140 +482,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -638,32 +566,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" style="4"/>
     <col min="2" max="2" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -672,32 +601,32 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>-8</v>
@@ -706,49 +635,49 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
+        <v>4.7</v>
+      </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-7</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="E6">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>-1.5</v>
@@ -757,100 +686,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>8.1999999999999993</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>-8.8000000000000007</v>
+        <v>-9.5</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>8.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E12">
-        <v>2.2000000000000002</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1.5</v>
@@ -859,7 +788,7 @@
         <v>-4.5</v>
       </c>
       <c r="E13">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -872,353 +801,380 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="2" width="8.7265625" style="4"/>
     <col min="3" max="3" width="13.6328125" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="B17" s="4">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="F18" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
+      <c r="F21" s="4" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>